--- a/techniqo/data_new_ticker/TIINDIA.xlsx
+++ b/techniqo/data_new_ticker/TIINDIA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G697"/>
+  <dimension ref="A1:G699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24781,6 +24781,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>623</v>
+      </c>
+      <c r="C698" t="n">
+        <v>637.45</v>
+      </c>
+      <c r="D698" t="n">
+        <v>618.9</v>
+      </c>
+      <c r="E698" t="n">
+        <v>626.95</v>
+      </c>
+      <c r="F698" t="n">
+        <v>74458</v>
+      </c>
+      <c r="G698" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>633.7</v>
+      </c>
+      <c r="C699" t="n">
+        <v>640</v>
+      </c>
+      <c r="D699" t="n">
+        <v>621.35</v>
+      </c>
+      <c r="E699" t="n">
+        <v>636.8</v>
+      </c>
+      <c r="F699" t="n">
+        <v>166624</v>
+      </c>
+      <c r="G699" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/TIINDIA.xlsx
+++ b/techniqo/data_new_ticker/TIINDIA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G699"/>
+  <dimension ref="A1:G701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24831,6 +24831,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>638.7</v>
+      </c>
+      <c r="C700" t="n">
+        <v>659.8</v>
+      </c>
+      <c r="D700" t="n">
+        <v>635.5</v>
+      </c>
+      <c r="E700" t="n">
+        <v>647.85</v>
+      </c>
+      <c r="F700" t="n">
+        <v>117690</v>
+      </c>
+      <c r="G700" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>653</v>
+      </c>
+      <c r="C701" t="n">
+        <v>663</v>
+      </c>
+      <c r="D701" t="n">
+        <v>625.25</v>
+      </c>
+      <c r="E701" t="n">
+        <v>643.55</v>
+      </c>
+      <c r="F701" t="n">
+        <v>347351</v>
+      </c>
+      <c r="G701" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
